--- a/data/pca/factorExposure/factorExposure_2010-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-13.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01678313538597676</v>
+        <v>-0.01667670502919176</v>
       </c>
       <c r="C2">
-        <v>-0.001368963046662385</v>
+        <v>-0.0009268408193626636</v>
       </c>
       <c r="D2">
-        <v>-0.00765068367498099</v>
+        <v>-0.006856685716499326</v>
       </c>
       <c r="E2">
-        <v>0.01268815090545119</v>
+        <v>0.002452133637530001</v>
       </c>
       <c r="F2">
-        <v>0.03405176809778934</v>
+        <v>0.0113716200538658</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1201682006010992</v>
+        <v>-0.09537358519184634</v>
       </c>
       <c r="C4">
-        <v>0.0914045780284314</v>
+        <v>-0.01806015362417955</v>
       </c>
       <c r="D4">
-        <v>-0.004226577945770865</v>
+        <v>-0.07733777577801353</v>
       </c>
       <c r="E4">
-        <v>-0.1287911259991809</v>
+        <v>-0.02796752037263337</v>
       </c>
       <c r="F4">
-        <v>0.1048195219545256</v>
+        <v>-0.04111692124361324</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1263012242907244</v>
+        <v>-0.1512707044998625</v>
       </c>
       <c r="C6">
-        <v>0.06519192851558166</v>
+        <v>-0.02425593320268029</v>
       </c>
       <c r="D6">
-        <v>0.01183766825328022</v>
+        <v>0.01693762059666714</v>
       </c>
       <c r="E6">
-        <v>-0.05034046632564181</v>
+        <v>-0.01245233697204468</v>
       </c>
       <c r="F6">
-        <v>0.02209421148344427</v>
+        <v>-0.03733026187341849</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07021221085904709</v>
+        <v>-0.06336654488335841</v>
       </c>
       <c r="C7">
-        <v>0.0854918152450236</v>
+        <v>-0.0008613368107137035</v>
       </c>
       <c r="D7">
-        <v>-0.008192886465499868</v>
+        <v>-0.04990668259668431</v>
       </c>
       <c r="E7">
-        <v>-0.0257311662323445</v>
+        <v>-0.01365682374625605</v>
       </c>
       <c r="F7">
-        <v>0.006931653563698842</v>
+        <v>-0.05707993160869615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04095105333437661</v>
+        <v>-0.05986112701232806</v>
       </c>
       <c r="C8">
-        <v>0.01104435900598086</v>
+        <v>0.01266681609138053</v>
       </c>
       <c r="D8">
-        <v>-0.01379334967801884</v>
+        <v>-0.02734257546809678</v>
       </c>
       <c r="E8">
-        <v>-0.06148989642562587</v>
+        <v>-0.01050160926929977</v>
       </c>
       <c r="F8">
-        <v>0.09878501537994815</v>
+        <v>0.0206896737064655</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08699837762580351</v>
+        <v>-0.07326113178941479</v>
       </c>
       <c r="C9">
-        <v>0.06238674758023687</v>
+        <v>-0.01504277100302133</v>
       </c>
       <c r="D9">
-        <v>0.007900675663828668</v>
+        <v>-0.07416690977100027</v>
       </c>
       <c r="E9">
-        <v>-0.1030765104993955</v>
+        <v>-0.02034182995810435</v>
       </c>
       <c r="F9">
-        <v>0.08356303901902261</v>
+        <v>-0.06176203915260053</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1270290949592355</v>
+        <v>-0.09068003543671729</v>
       </c>
       <c r="C10">
-        <v>-0.1832459799344656</v>
+        <v>-0.01301071725438675</v>
       </c>
       <c r="D10">
-        <v>-0.01716404615599028</v>
+        <v>0.1733930885270431</v>
       </c>
       <c r="E10">
-        <v>0.03192104564883461</v>
+        <v>0.03394086218010971</v>
       </c>
       <c r="F10">
-        <v>-0.046574693951704</v>
+        <v>0.05028478093690112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06559838549010631</v>
+        <v>-0.08914391137114445</v>
       </c>
       <c r="C11">
-        <v>0.05655777621250581</v>
+        <v>-0.01410087807029796</v>
       </c>
       <c r="D11">
-        <v>0.04422800059284371</v>
+        <v>-0.1053174206510584</v>
       </c>
       <c r="E11">
-        <v>-0.07927502825213502</v>
+        <v>-0.04027850434542566</v>
       </c>
       <c r="F11">
-        <v>0.064414356622045</v>
+        <v>-0.02811065993463016</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07541093221068221</v>
+        <v>-0.09463271058587173</v>
       </c>
       <c r="C12">
-        <v>0.06700881628361445</v>
+        <v>-0.01188094604977801</v>
       </c>
       <c r="D12">
-        <v>0.05511673980308787</v>
+        <v>-0.109169628238235</v>
       </c>
       <c r="E12">
-        <v>-0.1224909997789245</v>
+        <v>-0.03859529634901968</v>
       </c>
       <c r="F12">
-        <v>0.04691789618622157</v>
+        <v>-0.03167528396708869</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04265750236942441</v>
+        <v>-0.04409183176630417</v>
       </c>
       <c r="C13">
-        <v>0.04059570096876038</v>
+        <v>-0.004490600089638314</v>
       </c>
       <c r="D13">
-        <v>-0.02276395263210574</v>
+        <v>-0.03637933472886767</v>
       </c>
       <c r="E13">
-        <v>-0.04518546845773871</v>
+        <v>0.0143668013549786</v>
       </c>
       <c r="F13">
-        <v>0.03504004052176952</v>
+        <v>-0.02240014142380978</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04744801643635037</v>
+        <v>-0.02221167767459851</v>
       </c>
       <c r="C14">
-        <v>0.02973560400628106</v>
+        <v>-0.01518656224436282</v>
       </c>
       <c r="D14">
-        <v>0.004556479108192351</v>
+        <v>-0.02689467063580843</v>
       </c>
       <c r="E14">
-        <v>-0.04514796848033095</v>
+        <v>-0.01552764721146483</v>
       </c>
       <c r="F14">
-        <v>0.02914604014644262</v>
+        <v>-0.02601880548909826</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0274835571043852</v>
+        <v>-0.03279988441666333</v>
       </c>
       <c r="C15">
-        <v>0.01622923959383171</v>
+        <v>-0.00627968740460366</v>
       </c>
       <c r="D15">
-        <v>-0.07306524968314583</v>
+        <v>-0.03716062256553695</v>
       </c>
       <c r="E15">
-        <v>0.01059295430792002</v>
+        <v>-0.007106827521407128</v>
       </c>
       <c r="F15">
-        <v>0.03172633941413638</v>
+        <v>-0.03536970532740735</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07925400850122198</v>
+        <v>-0.07658918791484051</v>
       </c>
       <c r="C16">
-        <v>0.07305989614627344</v>
+        <v>-0.005860354066375383</v>
       </c>
       <c r="D16">
-        <v>0.04086557887813568</v>
+        <v>-0.1074086625538745</v>
       </c>
       <c r="E16">
-        <v>-0.09890697826264289</v>
+        <v>-0.05621972446156794</v>
       </c>
       <c r="F16">
-        <v>0.04462239316041596</v>
+        <v>-0.0366578154299912</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01600396129133254</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.00439089604229972</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02634211733336698</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01111694603600131</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03108417106783317</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04404798401756695</v>
+        <v>-0.06206623101313256</v>
       </c>
       <c r="C20">
-        <v>0.0230809906199322</v>
+        <v>-0.003491385612461137</v>
       </c>
       <c r="D20">
-        <v>-0.03558942281449923</v>
+        <v>-0.0632926283375516</v>
       </c>
       <c r="E20">
-        <v>-0.07064383003048785</v>
+        <v>-0.04949956634536472</v>
       </c>
       <c r="F20">
-        <v>0.01879263074617013</v>
+        <v>-0.03331129145776025</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03069751243369637</v>
+        <v>-0.03782191704822475</v>
       </c>
       <c r="C21">
-        <v>0.02439396287143149</v>
+        <v>-0.008351445924828319</v>
       </c>
       <c r="D21">
-        <v>0.01103015249851021</v>
+        <v>-0.03426141215006388</v>
       </c>
       <c r="E21">
-        <v>-0.05023828680716607</v>
+        <v>0.01274891741323688</v>
       </c>
       <c r="F21">
-        <v>0.04732747763597462</v>
+        <v>0.01617646614925219</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05626550331541719</v>
+        <v>-0.04280428893819151</v>
       </c>
       <c r="C22">
-        <v>0.02729940164021366</v>
+        <v>-0.0009731142241437019</v>
       </c>
       <c r="D22">
-        <v>-0.6489740013301151</v>
+        <v>0.001385640321224524</v>
       </c>
       <c r="E22">
-        <v>-0.048240401521531</v>
+        <v>-0.03466754689614057</v>
       </c>
       <c r="F22">
-        <v>-0.1186242239575998</v>
+        <v>0.02571324577995909</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05683643486003039</v>
+        <v>-0.04284164512405211</v>
       </c>
       <c r="C23">
-        <v>0.02848148471254818</v>
+        <v>-0.0009961070719723031</v>
       </c>
       <c r="D23">
-        <v>-0.6511036558877267</v>
+        <v>0.001208393845196792</v>
       </c>
       <c r="E23">
-        <v>-0.0522698594762117</v>
+        <v>-0.03503013658383772</v>
       </c>
       <c r="F23">
-        <v>-0.1158593075059772</v>
+        <v>0.0251392635484327</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07821654078678324</v>
+        <v>-0.08236547466315713</v>
       </c>
       <c r="C24">
-        <v>0.07039245745701993</v>
+        <v>-0.005768553072262501</v>
       </c>
       <c r="D24">
-        <v>0.034776286087959</v>
+        <v>-0.1099027993429735</v>
       </c>
       <c r="E24">
-        <v>-0.09648886340828217</v>
+        <v>-0.04394042420548459</v>
       </c>
       <c r="F24">
-        <v>0.04776223749215389</v>
+        <v>-0.02847571690767904</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07601398381643133</v>
+        <v>-0.08706072432208561</v>
       </c>
       <c r="C25">
-        <v>0.05320952514113145</v>
+        <v>-0.008117798608993221</v>
       </c>
       <c r="D25">
-        <v>0.05446213847640957</v>
+        <v>-0.09488371424992334</v>
       </c>
       <c r="E25">
-        <v>-0.1033174547784635</v>
+        <v>-0.02572375667803996</v>
       </c>
       <c r="F25">
-        <v>0.05632580270155829</v>
+        <v>-0.03808993583929868</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04319859583564346</v>
+        <v>-0.05719791533382103</v>
       </c>
       <c r="C26">
-        <v>0.01872408894368485</v>
+        <v>-0.01543609504676494</v>
       </c>
       <c r="D26">
-        <v>-0.01491977129096024</v>
+        <v>-0.02593687758469733</v>
       </c>
       <c r="E26">
-        <v>-0.09777925039017148</v>
+        <v>-0.024101737594768</v>
       </c>
       <c r="F26">
-        <v>-0.01142564426731169</v>
+        <v>-0.001873687618164488</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.152071308159294</v>
+        <v>-0.1368088907644975</v>
       </c>
       <c r="C28">
-        <v>-0.2763328471319318</v>
+        <v>-0.01005406668673632</v>
       </c>
       <c r="D28">
-        <v>0.003569734016018565</v>
+        <v>0.2775368795241752</v>
       </c>
       <c r="E28">
-        <v>-0.01613431370190704</v>
+        <v>0.06595787060657901</v>
       </c>
       <c r="F28">
-        <v>0.003823883925870111</v>
+        <v>-0.04790528941667541</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04139579575675196</v>
+        <v>-0.02743227163603717</v>
       </c>
       <c r="C29">
-        <v>0.0255589930866272</v>
+        <v>-0.00943002166808914</v>
       </c>
       <c r="D29">
-        <v>0.005923507679471854</v>
+        <v>-0.02521376626801788</v>
       </c>
       <c r="E29">
-        <v>-0.04178312756899987</v>
+        <v>-0.008262634191116119</v>
       </c>
       <c r="F29">
-        <v>0.02315471408449017</v>
+        <v>0.007482836714288903</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08559094780472001</v>
+        <v>-0.06658232426372789</v>
       </c>
       <c r="C30">
-        <v>0.05511242637832638</v>
+        <v>-0.008557756205606358</v>
       </c>
       <c r="D30">
-        <v>0.01099972794845083</v>
+        <v>-0.07132175569316315</v>
       </c>
       <c r="E30">
-        <v>-0.2971873932859415</v>
+        <v>-0.02014616780133233</v>
       </c>
       <c r="F30">
-        <v>0.01761637290567315</v>
+        <v>-0.1260368482434705</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02932194155276154</v>
+        <v>-0.04844812994296505</v>
       </c>
       <c r="C31">
-        <v>0.05379402900175359</v>
+        <v>-0.01537400649925199</v>
       </c>
       <c r="D31">
-        <v>-0.003856837724712855</v>
+        <v>-0.02895494159196577</v>
       </c>
       <c r="E31">
-        <v>-0.02819423346712055</v>
+        <v>-0.02588696556189881</v>
       </c>
       <c r="F31">
-        <v>0.02551616290296312</v>
+        <v>0.002420734271185241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05670547158991483</v>
+        <v>-0.04865382120355612</v>
       </c>
       <c r="C32">
-        <v>0.005352669561912782</v>
+        <v>-0.00128400101591945</v>
       </c>
       <c r="D32">
-        <v>0.03810831125462055</v>
+        <v>-0.02224812885710605</v>
       </c>
       <c r="E32">
-        <v>-0.01254888840393282</v>
+        <v>-0.02358874205476919</v>
       </c>
       <c r="F32">
-        <v>0.124436112494265</v>
+        <v>-0.007185154849884605</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09302355072522395</v>
+        <v>-0.09253934536907366</v>
       </c>
       <c r="C33">
-        <v>0.06630500704214681</v>
+        <v>-0.01123483974726414</v>
       </c>
       <c r="D33">
-        <v>0.02026848452814649</v>
+        <v>-0.08513573118398933</v>
       </c>
       <c r="E33">
-        <v>-0.0724110075080981</v>
+        <v>-0.0422955604991035</v>
       </c>
       <c r="F33">
-        <v>0.02315406749485867</v>
+        <v>-0.0443738017735514</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06725801465162673</v>
+        <v>-0.06960191186579101</v>
       </c>
       <c r="C34">
-        <v>0.05254165899838386</v>
+        <v>-0.01352471735465368</v>
       </c>
       <c r="D34">
-        <v>0.04882939696312277</v>
+        <v>-0.08907506914184228</v>
       </c>
       <c r="E34">
-        <v>-0.0823439946010841</v>
+        <v>-0.0270820706420837</v>
       </c>
       <c r="F34">
-        <v>0.04665203012279839</v>
+        <v>-0.05315142541806348</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02039564708229622</v>
+        <v>-0.0242284069361724</v>
       </c>
       <c r="C35">
-        <v>0.01919801373648496</v>
+        <v>-0.002512996187068647</v>
       </c>
       <c r="D35">
-        <v>0.002430914325181242</v>
+        <v>-0.009022972196934889</v>
       </c>
       <c r="E35">
-        <v>-0.01529835557485666</v>
+        <v>-0.01170624631558646</v>
       </c>
       <c r="F35">
-        <v>-0.006192249589870726</v>
+        <v>-0.01283789166610339</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02944503363232695</v>
+        <v>-0.02649313937318154</v>
       </c>
       <c r="C36">
-        <v>0.02082382704085593</v>
+        <v>-0.007223928961312251</v>
       </c>
       <c r="D36">
-        <v>-0.01603931006725558</v>
+        <v>-0.03821767910425284</v>
       </c>
       <c r="E36">
-        <v>-0.0812497474423169</v>
+        <v>-0.01623756797949861</v>
       </c>
       <c r="F36">
-        <v>0.02667321712366275</v>
+        <v>-0.01304840559277249</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02684197935629423</v>
+        <v>-0.003233102451891247</v>
       </c>
       <c r="C38">
-        <v>0.05485571254483564</v>
+        <v>-0.0006227985684408007</v>
       </c>
       <c r="D38">
-        <v>-0.02087189521225239</v>
+        <v>-0.003733862742067454</v>
       </c>
       <c r="E38">
-        <v>0.05541555836172602</v>
+        <v>-0.004515616641209652</v>
       </c>
       <c r="F38">
-        <v>-0.1200354416997711</v>
+        <v>0.003511575030009073</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09581020806247416</v>
+        <v>-0.1125703872791274</v>
       </c>
       <c r="C39">
-        <v>0.07685148526907201</v>
+        <v>-0.02002785058811321</v>
       </c>
       <c r="D39">
-        <v>0.1227896956858519</v>
+        <v>-0.1419557816968298</v>
       </c>
       <c r="E39">
-        <v>-0.1818118850343191</v>
+        <v>-0.04824331276333831</v>
       </c>
       <c r="F39">
-        <v>-0.02512539938128644</v>
+        <v>-0.04163485233632299</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02766144224017736</v>
+        <v>-0.03778885493209044</v>
       </c>
       <c r="C40">
-        <v>0.06398425622267896</v>
+        <v>-0.00791987430453407</v>
       </c>
       <c r="D40">
-        <v>-0.02560742567355695</v>
+        <v>-0.02450714594215671</v>
       </c>
       <c r="E40">
-        <v>-0.02895782777097976</v>
+        <v>-0.002612843029211082</v>
       </c>
       <c r="F40">
-        <v>0.09780874322462142</v>
+        <v>0.01469300373779861</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03098445066570102</v>
+        <v>-0.02638629533258805</v>
       </c>
       <c r="C41">
-        <v>0.02458945909904984</v>
+        <v>-0.006894839393134247</v>
       </c>
       <c r="D41">
-        <v>0.02508582737013262</v>
+        <v>-0.01124023477868148</v>
       </c>
       <c r="E41">
-        <v>-0.01159124873601202</v>
+        <v>-0.01050403919452583</v>
       </c>
       <c r="F41">
-        <v>-0.01787079695562783</v>
+        <v>0.01202376111716379</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04701939246534085</v>
+        <v>-0.04329324843889226</v>
       </c>
       <c r="C43">
-        <v>0.04873824836854382</v>
+        <v>-0.00739745347878708</v>
       </c>
       <c r="D43">
-        <v>-0.009398619053731294</v>
+        <v>-0.02085767744518614</v>
       </c>
       <c r="E43">
-        <v>-0.04497245706977728</v>
+        <v>-0.02530264379860882</v>
       </c>
       <c r="F43">
-        <v>-0.03040062210544919</v>
+        <v>0.01139592100205301</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09446561292748348</v>
+        <v>-0.07428562232643557</v>
       </c>
       <c r="C44">
-        <v>0.0772344336940798</v>
+        <v>-0.02427129153431616</v>
       </c>
       <c r="D44">
-        <v>-0.06427907128729447</v>
+        <v>-0.09327217350043582</v>
       </c>
       <c r="E44">
-        <v>-0.08280016529690962</v>
+        <v>-0.06294220696443603</v>
       </c>
       <c r="F44">
-        <v>0.09760502827560311</v>
+        <v>-0.1847845983293473</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04076969193820934</v>
+        <v>-0.02402240627282905</v>
       </c>
       <c r="C46">
-        <v>0.03853022676562893</v>
+        <v>-0.004293608776560725</v>
       </c>
       <c r="D46">
-        <v>-0.0515874575425017</v>
+        <v>-0.008156962942298335</v>
       </c>
       <c r="E46">
-        <v>-0.008297329658418923</v>
+        <v>-0.02317625086726797</v>
       </c>
       <c r="F46">
-        <v>0.03030700980311365</v>
+        <v>0.00442775858430967</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05277832410218964</v>
+        <v>-0.05309871534600211</v>
       </c>
       <c r="C47">
-        <v>0.042903496119521</v>
+        <v>-0.00357017563875234</v>
       </c>
       <c r="D47">
-        <v>-0.002869319489218626</v>
+        <v>-0.01355122394361318</v>
       </c>
       <c r="E47">
-        <v>-0.02940617573763451</v>
+        <v>-0.02253930754221467</v>
       </c>
       <c r="F47">
-        <v>-0.01032074553138713</v>
+        <v>0.04788019242922358</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04662936240890968</v>
+        <v>-0.0482107862977439</v>
       </c>
       <c r="C48">
-        <v>0.01599951558504075</v>
+        <v>-0.003358863726431131</v>
       </c>
       <c r="D48">
-        <v>0.008705009898497384</v>
+        <v>-0.04184544508950209</v>
       </c>
       <c r="E48">
-        <v>-0.06510274807743316</v>
+        <v>0.008465622423154745</v>
       </c>
       <c r="F48">
-        <v>0.06395129331053197</v>
+        <v>-0.01875753014127339</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2378589794812598</v>
+        <v>-0.207807324932739</v>
       </c>
       <c r="C49">
-        <v>0.06252432735639138</v>
+        <v>-0.01741278570696384</v>
       </c>
       <c r="D49">
-        <v>0.04132037190944053</v>
+        <v>0.006336443190856121</v>
       </c>
       <c r="E49">
-        <v>0.2503565305553041</v>
+        <v>-0.04220786544182298</v>
       </c>
       <c r="F49">
-        <v>-0.1516627808071871</v>
+        <v>-0.03521053163589629</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03662089573361882</v>
+        <v>-0.04869657195136081</v>
       </c>
       <c r="C50">
-        <v>0.04528262258508722</v>
+        <v>-0.01155559488169015</v>
       </c>
       <c r="D50">
-        <v>0.01066087148588715</v>
+        <v>-0.02832207782726744</v>
       </c>
       <c r="E50">
-        <v>-0.06654508617052064</v>
+        <v>-0.02804618800794449</v>
       </c>
       <c r="F50">
-        <v>0.007934245134924051</v>
+        <v>-0.005848941767533637</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03311336226580008</v>
+        <v>-0.003738248310834965</v>
       </c>
       <c r="C51">
-        <v>0.003980472133279543</v>
+        <v>-0.0008748723743102266</v>
       </c>
       <c r="D51">
-        <v>0.002646124806876331</v>
+        <v>0.001452645253068012</v>
       </c>
       <c r="E51">
-        <v>0.05310433527715654</v>
+        <v>-0.001762179700347417</v>
       </c>
       <c r="F51">
-        <v>-0.01977741771802853</v>
+        <v>-0.004149066177823455</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01663490504670311</v>
+        <v>-0.1404254532226103</v>
       </c>
       <c r="C52">
-        <v>0.005985258310311803</v>
+        <v>-0.0126187929431165</v>
       </c>
       <c r="D52">
-        <v>0.02324367945785724</v>
+        <v>-0.05280925989211489</v>
       </c>
       <c r="E52">
-        <v>-0.01188786315421048</v>
+        <v>-0.0146998434433399</v>
       </c>
       <c r="F52">
-        <v>-0.001568398303248348</v>
+        <v>-0.02853900681641301</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1459117436152946</v>
+        <v>-0.1724269147148645</v>
       </c>
       <c r="C53">
-        <v>0.05793336015385107</v>
+        <v>-0.01536558448107219</v>
       </c>
       <c r="D53">
-        <v>-0.01048453691576102</v>
+        <v>-0.02087475775538917</v>
       </c>
       <c r="E53">
-        <v>0.0306319412401517</v>
+        <v>-0.03831457852265377</v>
       </c>
       <c r="F53">
-        <v>-0.09886251374253055</v>
+        <v>-0.05569446190498987</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06176966838213538</v>
+        <v>-0.02219972932111389</v>
       </c>
       <c r="C54">
-        <v>0.03204692198210284</v>
+        <v>-0.01308830529160687</v>
       </c>
       <c r="D54">
-        <v>-0.01231037265979862</v>
+        <v>-0.02801487529138287</v>
       </c>
       <c r="E54">
-        <v>-0.0972549289602801</v>
+        <v>-0.015527041046394</v>
       </c>
       <c r="F54">
-        <v>0.09469351685834022</v>
+        <v>-0.0008707499566237428</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0804644896586173</v>
+        <v>-0.1139626368772668</v>
       </c>
       <c r="C55">
-        <v>0.0482598435111936</v>
+        <v>-0.01439733035885692</v>
       </c>
       <c r="D55">
-        <v>0.03063002260365449</v>
+        <v>-0.01847148549983195</v>
       </c>
       <c r="E55">
-        <v>0.003806814951281861</v>
+        <v>-0.0295492418030056</v>
       </c>
       <c r="F55">
-        <v>-0.01885161233145532</v>
+        <v>-0.04599263273535064</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1380500976927337</v>
+        <v>-0.1767829465258808</v>
       </c>
       <c r="C56">
-        <v>0.09137441619680192</v>
+        <v>-0.01274801288786083</v>
       </c>
       <c r="D56">
-        <v>0.01943048664028615</v>
+        <v>-0.02012850314065398</v>
       </c>
       <c r="E56">
-        <v>0.01025381153295906</v>
+        <v>-0.04275506067960697</v>
       </c>
       <c r="F56">
-        <v>-0.06704012306603838</v>
+        <v>-0.02423072847030692</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03565499487034401</v>
+        <v>-0.04739274292310607</v>
       </c>
       <c r="C58">
-        <v>0.02839478646890532</v>
+        <v>-0.003923833693402053</v>
       </c>
       <c r="D58">
-        <v>-0.033425953789819</v>
+        <v>-0.05937606068057982</v>
       </c>
       <c r="E58">
-        <v>-0.0370568839449374</v>
+        <v>-0.01285723496225819</v>
       </c>
       <c r="F58">
-        <v>6.933149961936983e-05</v>
+        <v>0.04234083362648565</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2150619086346195</v>
+        <v>-0.1698360425460178</v>
       </c>
       <c r="C59">
-        <v>-0.2421612672971063</v>
+        <v>-0.01226848517408528</v>
       </c>
       <c r="D59">
-        <v>0.04736177216472314</v>
+        <v>0.2353112950155528</v>
       </c>
       <c r="E59">
-        <v>0.0392399139243538</v>
+        <v>0.04686192885611291</v>
       </c>
       <c r="F59">
-        <v>0.02755290369548198</v>
+        <v>0.0281586118723602</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2343237159445585</v>
+        <v>-0.240284238410783</v>
       </c>
       <c r="C60">
-        <v>0.138260312846431</v>
+        <v>0.004085804675873205</v>
       </c>
       <c r="D60">
-        <v>0.07854411412492424</v>
+        <v>-0.05668939583266941</v>
       </c>
       <c r="E60">
-        <v>0.1050974225264152</v>
+        <v>-0.01201721333236211</v>
       </c>
       <c r="F60">
-        <v>-0.05425035271619114</v>
+        <v>0.04602378659520655</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09300681081767644</v>
+        <v>-0.08632795278277401</v>
       </c>
       <c r="C61">
-        <v>0.0665437005780861</v>
+        <v>-0.01527653287786246</v>
       </c>
       <c r="D61">
-        <v>0.06766565987730436</v>
+        <v>-0.1026158282795384</v>
       </c>
       <c r="E61">
-        <v>-0.1481900811047196</v>
+        <v>-0.03339602813446978</v>
       </c>
       <c r="F61">
-        <v>0.02392980680895865</v>
+        <v>-0.02694970302720888</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1320729326484904</v>
+        <v>-0.1679643594148171</v>
       </c>
       <c r="C62">
-        <v>0.07807273529352934</v>
+        <v>-0.01661760465454879</v>
       </c>
       <c r="D62">
-        <v>0.006814073950886346</v>
+        <v>-0.01863432235633629</v>
       </c>
       <c r="E62">
-        <v>0.02547691038105356</v>
+        <v>-0.03778646438498987</v>
       </c>
       <c r="F62">
-        <v>-0.06071772264195193</v>
+        <v>-0.009969772345065877</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04429631988978025</v>
+        <v>-0.04306010068841038</v>
       </c>
       <c r="C63">
-        <v>0.01747391023557031</v>
+        <v>-0.004615813583628206</v>
       </c>
       <c r="D63">
-        <v>0.00902241372992533</v>
+        <v>-0.04405269669652993</v>
       </c>
       <c r="E63">
-        <v>-0.07236804148177692</v>
+        <v>-0.0135604841490057</v>
       </c>
       <c r="F63">
-        <v>0.00898444929660804</v>
+        <v>-0.01329297509632009</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09770902830640503</v>
+        <v>-0.112196290090385</v>
       </c>
       <c r="C64">
-        <v>0.05688552788928813</v>
+        <v>-0.01232032179993355</v>
       </c>
       <c r="D64">
-        <v>0.001294599022594827</v>
+        <v>-0.03778703674574263</v>
       </c>
       <c r="E64">
-        <v>-0.07427224599406382</v>
+        <v>-0.01856737078588745</v>
       </c>
       <c r="F64">
-        <v>-0.002382393369392034</v>
+        <v>-0.01603009168584299</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1196138185980588</v>
+        <v>-0.1422063652385732</v>
       </c>
       <c r="C65">
-        <v>0.03840703390550993</v>
+        <v>-0.03055518778348239</v>
       </c>
       <c r="D65">
-        <v>0.0233361772910571</v>
+        <v>0.04341507006339345</v>
       </c>
       <c r="E65">
-        <v>-0.09072800762642638</v>
+        <v>-0.003116368692421784</v>
       </c>
       <c r="F65">
-        <v>0.01403722062505829</v>
+        <v>-0.03990838968289621</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1067036024682914</v>
+        <v>-0.1345870614676789</v>
       </c>
       <c r="C66">
-        <v>0.1124330298537036</v>
+        <v>-0.01759006137514467</v>
       </c>
       <c r="D66">
-        <v>0.1190822516390815</v>
+        <v>-0.1294742849724738</v>
       </c>
       <c r="E66">
-        <v>-0.1667168240867375</v>
+        <v>-0.05793555370134431</v>
       </c>
       <c r="F66">
-        <v>-0.0278151415268438</v>
+        <v>-0.04550968812955802</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08348033391598039</v>
+        <v>-0.06572641773183431</v>
       </c>
       <c r="C67">
-        <v>0.06723718171002466</v>
+        <v>-0.004569320895682146</v>
       </c>
       <c r="D67">
-        <v>-0.02097404202549712</v>
+        <v>-0.05588333582734292</v>
       </c>
       <c r="E67">
-        <v>0.02701562004605087</v>
+        <v>-0.0191220055065945</v>
       </c>
       <c r="F67">
-        <v>-0.1355269739847574</v>
+        <v>0.04285717418349248</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1289028225482603</v>
+        <v>-0.1103363029496431</v>
       </c>
       <c r="C68">
-        <v>-0.2728849704590166</v>
+        <v>-0.0211430303518133</v>
       </c>
       <c r="D68">
-        <v>0.01637132556375794</v>
+        <v>0.2755504744193339</v>
       </c>
       <c r="E68">
-        <v>-0.04958864889216909</v>
+        <v>0.08478807429943731</v>
       </c>
       <c r="F68">
-        <v>-0.0009380306778270554</v>
+        <v>-0.05126967562615656</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04319437459326169</v>
+        <v>-0.04067657920932887</v>
       </c>
       <c r="C69">
-        <v>0.01872403365640023</v>
+        <v>-0.001252449950627248</v>
       </c>
       <c r="D69">
-        <v>-0.009914239955744929</v>
+        <v>-0.008313235222056943</v>
       </c>
       <c r="E69">
-        <v>-0.02112784598470901</v>
+        <v>-0.02599037167817985</v>
       </c>
       <c r="F69">
-        <v>-0.03668298715483877</v>
+        <v>0.01663235114865352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05334507667726898</v>
+        <v>-0.06519726298067274</v>
       </c>
       <c r="C70">
-        <v>0.05650219035746554</v>
+        <v>0.02678778652032959</v>
       </c>
       <c r="D70">
-        <v>0.0258654361189611</v>
+        <v>-0.004355734492325263</v>
       </c>
       <c r="E70">
-        <v>-0.05921129111614828</v>
+        <v>0.04342046354191968</v>
       </c>
       <c r="F70">
-        <v>0.01891296696682106</v>
+        <v>0.3347730656118326</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1466918774315291</v>
+        <v>-0.1290969822717842</v>
       </c>
       <c r="C71">
-        <v>-0.2786230769264514</v>
+        <v>-0.02465088526539924</v>
       </c>
       <c r="D71">
-        <v>0.0107146308404521</v>
+        <v>0.2913244878937258</v>
       </c>
       <c r="E71">
-        <v>-0.06374889973608518</v>
+        <v>0.09233984998219781</v>
       </c>
       <c r="F71">
-        <v>0.0003543062124376997</v>
+        <v>-0.05424296000667025</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1277344488445325</v>
+        <v>-0.13843360716626</v>
       </c>
       <c r="C72">
-        <v>0.02859697514934692</v>
+        <v>-0.02392575829447068</v>
       </c>
       <c r="D72">
-        <v>0.0119423214687594</v>
+        <v>-0.01102019352038606</v>
       </c>
       <c r="E72">
-        <v>-0.05374659733820311</v>
+        <v>-0.04241404995727022</v>
       </c>
       <c r="F72">
-        <v>-0.04306993859458112</v>
+        <v>-0.02393818011146073</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2250768629947544</v>
+        <v>-0.2101728553257758</v>
       </c>
       <c r="C73">
-        <v>0.1296320172873624</v>
+        <v>-0.01195920538718165</v>
       </c>
       <c r="D73">
-        <v>0.1515960156162521</v>
+        <v>-0.02492401023543397</v>
       </c>
       <c r="E73">
-        <v>0.4006490613799915</v>
+        <v>-0.07129025621338969</v>
       </c>
       <c r="F73">
-        <v>-0.3001946531137453</v>
+        <v>-0.02151875784747283</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08788188870783567</v>
+        <v>-0.09361888352687261</v>
       </c>
       <c r="C74">
-        <v>0.08674161091909983</v>
+        <v>-0.01185974237410915</v>
       </c>
       <c r="D74">
-        <v>0.008401743145133884</v>
+        <v>-0.02933809076425277</v>
       </c>
       <c r="E74">
-        <v>0.0006946949286091723</v>
+        <v>-0.05131860973868741</v>
       </c>
       <c r="F74">
-        <v>-0.09635427885797636</v>
+        <v>-0.03952608675091319</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08563412326849666</v>
+        <v>-0.1295136637744048</v>
       </c>
       <c r="C75">
-        <v>0.06256905023255259</v>
+        <v>-0.02607349618553615</v>
       </c>
       <c r="D75">
-        <v>0.005324232721011271</v>
+        <v>-0.03991090487310269</v>
       </c>
       <c r="E75">
-        <v>-0.001900394078742281</v>
+        <v>-0.05888442878292219</v>
       </c>
       <c r="F75">
-        <v>-0.01637155232204475</v>
+        <v>-0.00539331316421173</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07961983157962711</v>
+        <v>-0.009342261097198939</v>
       </c>
       <c r="C76">
-        <v>0.07915083131548052</v>
+        <v>-0.002089838194021153</v>
       </c>
       <c r="D76">
-        <v>-0.001941476218021619</v>
+        <v>-0.004364924090595634</v>
       </c>
       <c r="E76">
-        <v>0.04331489958370043</v>
+        <v>-0.009639887954047362</v>
       </c>
       <c r="F76">
-        <v>-0.03995442390008973</v>
+        <v>-0.002801733373296916</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06927240689019851</v>
+        <v>-0.08141394811459318</v>
       </c>
       <c r="C77">
-        <v>0.01370873133544656</v>
+        <v>-0.01220918247033418</v>
       </c>
       <c r="D77">
-        <v>0.04070672530463137</v>
+        <v>-0.09737839027163095</v>
       </c>
       <c r="E77">
-        <v>-0.1777814604661008</v>
+        <v>-0.03009547091998462</v>
       </c>
       <c r="F77">
-        <v>0.1686564578009343</v>
+        <v>-0.04135700940202069</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1864513784303008</v>
+        <v>-0.1108121841491657</v>
       </c>
       <c r="C78">
-        <v>0.1474157356517319</v>
+        <v>-0.0448893906722842</v>
       </c>
       <c r="D78">
-        <v>-0.1696309135900285</v>
+        <v>-0.1155259260745158</v>
       </c>
       <c r="E78">
-        <v>0.2150568975873254</v>
+        <v>-0.08965640161710751</v>
       </c>
       <c r="F78">
-        <v>0.6312860938203574</v>
+        <v>-0.07819735653879953</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1285787768126109</v>
+        <v>-0.1620336626948214</v>
       </c>
       <c r="C79">
-        <v>0.07846786227090174</v>
+        <v>-0.02007232567131652</v>
       </c>
       <c r="D79">
-        <v>-0.008602750152782857</v>
+        <v>-0.02449472164997487</v>
       </c>
       <c r="E79">
-        <v>-0.005665611910916852</v>
+        <v>-0.04874071904581626</v>
       </c>
       <c r="F79">
-        <v>-0.03900220898588248</v>
+        <v>-0.003308977410111453</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06835799459297073</v>
+        <v>-0.08008237736487583</v>
       </c>
       <c r="C80">
-        <v>0.04006499308980235</v>
+        <v>0.001272163368697391</v>
       </c>
       <c r="D80">
-        <v>0.07620310174786778</v>
+        <v>-0.05234875706494423</v>
       </c>
       <c r="E80">
-        <v>-0.06942603226789058</v>
+        <v>-0.02766080046666854</v>
       </c>
       <c r="F80">
-        <v>-0.03678558409988932</v>
+        <v>0.01064495576486938</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1212390686424749</v>
+        <v>-0.1215981643721727</v>
       </c>
       <c r="C81">
-        <v>0.04857932386074462</v>
+        <v>-0.02970776584832415</v>
       </c>
       <c r="D81">
-        <v>-0.01084656727475753</v>
+        <v>-0.02998173179093087</v>
       </c>
       <c r="E81">
-        <v>-0.05270343786201293</v>
+        <v>-0.05840101595994594</v>
       </c>
       <c r="F81">
-        <v>-0.02543831805920984</v>
+        <v>0.005508209316744536</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1205402411374552</v>
+        <v>-0.1621047353113698</v>
       </c>
       <c r="C82">
-        <v>0.05854054206674189</v>
+        <v>-0.020548688536838</v>
       </c>
       <c r="D82">
-        <v>0.004125608721986973</v>
+        <v>-0.02327824973793517</v>
       </c>
       <c r="E82">
-        <v>-0.03067507715933401</v>
+        <v>-0.03465199091235509</v>
       </c>
       <c r="F82">
-        <v>-0.08479222395623455</v>
+        <v>-0.05007300753672532</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08310616931740379</v>
+        <v>-0.06671626764130327</v>
       </c>
       <c r="C83">
-        <v>0.08258959610231793</v>
+        <v>-0.004256925799188025</v>
       </c>
       <c r="D83">
-        <v>0.009832736745286508</v>
+        <v>-0.04620359260912886</v>
       </c>
       <c r="E83">
-        <v>-0.06354651951398141</v>
+        <v>-0.003972826262122232</v>
       </c>
       <c r="F83">
-        <v>-0.07320718556121869</v>
+        <v>0.03098645281864038</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04727807276616721</v>
+        <v>-0.06099666562706789</v>
       </c>
       <c r="C84">
-        <v>-0.05293099823394747</v>
+        <v>-0.01203790053083812</v>
       </c>
       <c r="D84">
-        <v>0.04329107097846696</v>
+        <v>-0.05791195116499097</v>
       </c>
       <c r="E84">
-        <v>0.0628351911146547</v>
+        <v>0.003890681122422987</v>
       </c>
       <c r="F84">
-        <v>0.1881117536107058</v>
+        <v>-0.01523263724492729</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1201707774396527</v>
+        <v>-0.1372786028171889</v>
       </c>
       <c r="C85">
-        <v>0.05409210871111856</v>
+        <v>-0.02534732014648065</v>
       </c>
       <c r="D85">
-        <v>0.008993722593644634</v>
+        <v>-0.02257898313192664</v>
       </c>
       <c r="E85">
-        <v>-0.001543411062138843</v>
+        <v>-0.04052736851316296</v>
       </c>
       <c r="F85">
-        <v>-0.06533625736811288</v>
+        <v>-0.03760503661253253</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0873571499357452</v>
+        <v>-0.1007897500226881</v>
       </c>
       <c r="C86">
-        <v>0.01260875469983089</v>
+        <v>0.006639609604710819</v>
       </c>
       <c r="D86">
-        <v>-0.02754482407528559</v>
+        <v>-0.009264384120197977</v>
       </c>
       <c r="E86">
-        <v>0.3482089240225714</v>
+        <v>-0.1311679168617324</v>
       </c>
       <c r="F86">
-        <v>0.3826843441843362</v>
+        <v>0.8295612237365976</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1179769589012197</v>
+        <v>-0.1017466288148898</v>
       </c>
       <c r="C87">
-        <v>0.06584194220002985</v>
+        <v>-0.02639357644495404</v>
       </c>
       <c r="D87">
-        <v>-0.02062252253322043</v>
+        <v>-0.06766347954163775</v>
       </c>
       <c r="E87">
-        <v>-0.05661824459976515</v>
+        <v>0.05321575345201878</v>
       </c>
       <c r="F87">
-        <v>0.04811817179892931</v>
+        <v>-0.09530140646109798</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05909339307931141</v>
+        <v>-0.06084740669100164</v>
       </c>
       <c r="C88">
-        <v>0.06039959030867056</v>
+        <v>-0.003641697398887134</v>
       </c>
       <c r="D88">
-        <v>0.03554236013580583</v>
+        <v>-0.05808564497674214</v>
       </c>
       <c r="E88">
-        <v>-0.02774106392911918</v>
+        <v>-0.02429385690070891</v>
       </c>
       <c r="F88">
-        <v>-0.0139946906177803</v>
+        <v>-0.006612747395202737</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2324799611179938</v>
+        <v>-0.1315360711773258</v>
       </c>
       <c r="C89">
-        <v>-0.3695302787879508</v>
+        <v>-0.003935683666700872</v>
       </c>
       <c r="D89">
-        <v>-0.04955616976305199</v>
+        <v>0.2792491962526025</v>
       </c>
       <c r="E89">
-        <v>0.03218779505664175</v>
+        <v>0.09101335982195569</v>
       </c>
       <c r="F89">
-        <v>0.01249470226535408</v>
+        <v>-0.03661794342976536</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1552957474908228</v>
+        <v>-0.1410389646036554</v>
       </c>
       <c r="C90">
-        <v>-0.2603071738411079</v>
+        <v>-0.02031285485186332</v>
       </c>
       <c r="D90">
-        <v>0.008980604122714959</v>
+        <v>0.2760454242883705</v>
       </c>
       <c r="E90">
-        <v>-0.02452424304849592</v>
+        <v>0.1030280267862208</v>
       </c>
       <c r="F90">
-        <v>-0.01003498979031181</v>
+        <v>-0.03979913129454184</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07517732025560457</v>
+        <v>-0.1164511005469827</v>
       </c>
       <c r="C91">
-        <v>0.06128740350351166</v>
+        <v>-0.01602487863766437</v>
       </c>
       <c r="D91">
-        <v>-0.00619143792870791</v>
+        <v>-0.004420112390810769</v>
       </c>
       <c r="E91">
-        <v>0.01788974672037215</v>
+        <v>-0.05892075289630479</v>
       </c>
       <c r="F91">
-        <v>0.003151893601423515</v>
+        <v>0.03191244054386985</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1687009149091696</v>
+        <v>-0.1437276716647193</v>
       </c>
       <c r="C92">
-        <v>-0.2972758110797886</v>
+        <v>-0.01169220671828578</v>
       </c>
       <c r="D92">
-        <v>-0.03090821438619712</v>
+        <v>0.3131653291908313</v>
       </c>
       <c r="E92">
-        <v>-0.03746122140386107</v>
+        <v>0.09956522873582192</v>
       </c>
       <c r="F92">
-        <v>0.02939594628681554</v>
+        <v>-0.03212298715548172</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1713303970339881</v>
+        <v>-0.1454589551800559</v>
       </c>
       <c r="C93">
-        <v>-0.3055417605144644</v>
+        <v>-0.01698232687135016</v>
       </c>
       <c r="D93">
-        <v>0.03963838089074425</v>
+        <v>0.2808030440538184</v>
       </c>
       <c r="E93">
-        <v>-0.01182502102059741</v>
+        <v>0.06956166359195251</v>
       </c>
       <c r="F93">
-        <v>0.004370469773124049</v>
+        <v>-0.03117153651734325</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1140660147570887</v>
+        <v>-0.1331630589384057</v>
       </c>
       <c r="C94">
-        <v>0.08251250949198981</v>
+        <v>-0.02354470013368955</v>
       </c>
       <c r="D94">
-        <v>-0.005819557021499096</v>
+        <v>-0.05213450528090096</v>
       </c>
       <c r="E94">
-        <v>0.01151733520063396</v>
+        <v>-0.06109232514591704</v>
       </c>
       <c r="F94">
-        <v>-0.04988875532745313</v>
+        <v>-0.02385174437019219</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1425436332852312</v>
+        <v>-0.1277401871579119</v>
       </c>
       <c r="C95">
-        <v>0.05946735551916087</v>
+        <v>-0.006662235728819092</v>
       </c>
       <c r="D95">
-        <v>-0.01680001963922042</v>
+        <v>-0.08704744778149694</v>
       </c>
       <c r="E95">
-        <v>-0.01244519116465212</v>
+        <v>-0.04011353322714867</v>
       </c>
       <c r="F95">
-        <v>0.1067616884462735</v>
+        <v>0.008029235238227917</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09528470064987808</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893663341363245</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01215609998736808</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06047671383786241</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05049861800939497</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1163387958256237</v>
+        <v>-0.187219634336149</v>
       </c>
       <c r="C97">
-        <v>-0.01534532055553267</v>
+        <v>0.01275325379730457</v>
       </c>
       <c r="D97">
-        <v>-0.01482172366164959</v>
+        <v>0.007484672762594603</v>
       </c>
       <c r="E97">
-        <v>-0.3169389721127797</v>
+        <v>-0.01407109442875996</v>
       </c>
       <c r="F97">
-        <v>-0.1270264863176319</v>
+        <v>0.1688513275854079</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2578692188176177</v>
+        <v>-0.2079173355685583</v>
       </c>
       <c r="C98">
-        <v>0.1250017402018747</v>
+        <v>-0.007476762190390985</v>
       </c>
       <c r="D98">
-        <v>-0.05223358301122358</v>
+        <v>-0.01675693240788918</v>
       </c>
       <c r="E98">
-        <v>0.242838100287566</v>
+        <v>0.08627310981680576</v>
       </c>
       <c r="F98">
-        <v>-0.132048488305883</v>
+        <v>0.1449859254952948</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07476854722727043</v>
+        <v>-0.05813075127545173</v>
       </c>
       <c r="C99">
-        <v>0.05733078493123738</v>
+        <v>0.002962397371547274</v>
       </c>
       <c r="D99">
-        <v>-0.01430991271019897</v>
+        <v>-0.02989941610497627</v>
       </c>
       <c r="E99">
-        <v>0.03487013269472757</v>
+        <v>-0.02626852294073261</v>
       </c>
       <c r="F99">
-        <v>-0.01817629724152099</v>
+        <v>-0.005149728312748844</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.123176048544098</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04729141948964218</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3217896865707177</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.907495946167452</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.06103172007918783</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04182209652675636</v>
+        <v>-0.0273096776470109</v>
       </c>
       <c r="C101">
-        <v>0.02500515826001306</v>
+        <v>-0.009344476415443156</v>
       </c>
       <c r="D101">
-        <v>0.006225838225594987</v>
+        <v>-0.02486317299096855</v>
       </c>
       <c r="E101">
-        <v>-0.03833991054826263</v>
+        <v>-0.00842292135788396</v>
       </c>
       <c r="F101">
-        <v>0.02253917320909866</v>
+        <v>0.009530855909963583</v>
       </c>
     </row>
     <row r="102" spans="1:6">
